--- a/tables/CCC-tools.xlsx
+++ b/tables/CCC-tools.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crchudequebeculavalca-my.sharepoint.com/personal/bastien_chassagnol_crchudequebec_ulaval_ca/Documents/04. BNCL (Research Assistant)/Professional Research Projects/CCCSTBench/grants/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crchudequebeculavalca-my.sharepoint.com/personal/bastien_chassagnol_crchudequebec_ulaval_ca/Documents/04. BNCL (Research Assistant)/Professional Research Projects/CCCSTBench-Book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{21C6D4B8-5E7E-6940-9255-A222CCA7F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB564BF-F50E-4C44-94D4-D76DDD5439BB}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{21C6D4B8-5E7E-6940-9255-A222CCA7F927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EA5C59-B8B2-4C89-A1C9-4B7792220280}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCC-tools" sheetId="1" r:id="rId1"/>
+    <sheet name="CCC-tools-restrained" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="551">
   <si>
     <t>Tool</t>
   </si>
@@ -1680,7 +1681,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1728,8 +1729,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1772,8 +1779,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1796,11 +1809,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1853,11 +1962,776 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF8CE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1881,6 +2755,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3207CEC2-75A9-4617-B631-7DEBA0AEC50E}" name="Table1" displayName="Table1" ref="A1:R106" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:R106" xr:uid="{3207CEC2-75A9-4617-B631-7DEBA0AEC50E}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:R50">
+    <sortCondition descending="1" ref="I1:I106"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{3AE0D0D8-6034-4147-935C-61F05C5C6A64}" name="Tool" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{75131F0F-9D78-4682-B396-4B1E50F5DDE4}" name="Category" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2E7CC08A-F5FB-4A78-8599-FD1AA0C11ACB}" name="Method overview" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{485A65BC-776C-40E1-9C20-95103039E0D4}" name="Additional information" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{ED88D7C5-5AB5-48AA-AB75-474F346EFCAE}" name="Tool classification" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{CEBCEE59-7C8F-4377-B297-1E56BB35A1AD}" name="Language" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{73A859D9-1892-4570-AD72-FDD5CD17A7FD}" name="URL" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{F0AFAF16-E7D6-40A5-970A-0494CA794B20}" name="Refs" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{76B2D853-CA1F-4552-841A-02F49D62C56B}" name="Year" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{2B38B986-2279-4451-8CEC-7050D81798B6}" name="Real SC" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{93C903E4-7709-400D-99CD-3B9CB27CD40A}" name="Conditions" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{AC69D9E2-EEC1-4A37-B497-4CFC655D30D8}" name="Spatial" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{61385389-6B5A-4DEB-BAD0-B2801671A098}" name="Metabolites" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{A0176D9E-3646-4B76-94A6-9349533BCD04}" name="Intracellular" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{B434D709-FAD2-4CBE-B3CA-EA0FF0A566DE}" name="Core Functions" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{BB402A41-B18F-4F6D-87D2-C772FE41BAC4}" name="Deep Learning" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{65184A63-072F-4482-86F9-9BB625360C93}" name="Classical Stats" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{8A65F09F-6E81-432A-B3D2-A87B9E244F40}" name="Machine Learning" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,11 +3001,11 @@
   </sheetPr>
   <dimension ref="A1:AA1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2099,74 +3014,75 @@
     <col min="2" max="2" width="41.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.453125" customWidth="1"/>
     <col min="4" max="4" width="35.1796875" customWidth="1"/>
-    <col min="5" max="6" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="46.1796875" customWidth="1"/>
     <col min="8" max="8" width="38.6328125" customWidth="1"/>
     <col min="9" max="9" width="9.36328125" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1"/>
@@ -2179,8 +3095,8 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>523</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2231,7 +3147,7 @@
       <c r="Q2" s="14">
         <v>1</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="19">
         <v>0</v>
       </c>
       <c r="S2" s="1"/>
@@ -2244,8 +3160,8 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2296,7 +3212,7 @@
       <c r="Q3" s="14">
         <v>0</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="19">
         <v>0</v>
       </c>
       <c r="S3" s="1"/>
@@ -2309,8 +3225,8 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2361,7 +3277,7 @@
       <c r="Q4" s="14">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="19">
         <v>1</v>
       </c>
       <c r="S4" s="1"/>
@@ -2374,8 +3290,8 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -2426,7 +3342,7 @@
       <c r="Q5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
       <c r="S5" s="1"/>
@@ -2439,8 +3355,8 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2491,7 +3407,7 @@
       <c r="Q6" s="14">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="19">
         <v>0</v>
       </c>
       <c r="S6" s="1"/>
@@ -2504,8 +3420,8 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2556,7 +3472,7 @@
       <c r="Q7" s="14">
         <v>0</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="19">
         <v>1</v>
       </c>
       <c r="S7" s="1"/>
@@ -2569,8 +3485,8 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2621,7 +3537,7 @@
       <c r="Q8" s="14">
         <v>0</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="19">
         <v>1</v>
       </c>
       <c r="S8" s="1"/>
@@ -2635,7 +3551,7 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2686,7 +3602,7 @@
       <c r="Q9" s="14">
         <v>0</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="19">
         <v>1</v>
       </c>
       <c r="S9" s="1"/>
@@ -2699,8 +3615,8 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2751,7 +3667,7 @@
       <c r="Q10" s="14">
         <v>1</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="19">
         <v>1</v>
       </c>
       <c r="S10" s="1"/>
@@ -2764,8 +3680,8 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2816,7 +3732,7 @@
       <c r="Q11" s="14">
         <v>0</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="19">
         <v>0</v>
       </c>
       <c r="S11" s="1"/>
@@ -2829,8 +3745,8 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2881,7 +3797,7 @@
       <c r="Q12" s="14">
         <v>1</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="19">
         <v>1</v>
       </c>
       <c r="S12" s="1"/>
@@ -2894,8 +3810,8 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:27" ht="162.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2946,7 +3862,7 @@
       <c r="Q13" s="14">
         <v>1</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="19">
         <v>1</v>
       </c>
       <c r="S13" s="1"/>
@@ -2959,8 +3875,8 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3011,7 +3927,7 @@
       <c r="Q14" s="14">
         <v>1</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="19">
         <v>0</v>
       </c>
       <c r="S14" s="1"/>
@@ -3024,8 +3940,8 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -3076,7 +3992,7 @@
       <c r="Q15" s="14">
         <v>0</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="19">
         <v>1</v>
       </c>
       <c r="S15" s="1"/>
@@ -3089,8 +4005,8 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -3141,7 +4057,7 @@
       <c r="Q16" s="14">
         <v>1</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="19">
         <v>0</v>
       </c>
       <c r="S16" s="1"/>
@@ -3154,8 +4070,8 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3206,7 +4122,7 @@
       <c r="Q17" s="14">
         <v>1</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="1"/>
@@ -3219,8 +4135,8 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -3271,7 +4187,7 @@
       <c r="Q18" s="14">
         <v>0</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="19">
         <v>1</v>
       </c>
       <c r="S18" s="1"/>
@@ -3284,8 +4200,8 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3336,7 +4252,7 @@
       <c r="Q19" s="14">
         <v>1</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="19">
         <v>0</v>
       </c>
       <c r="S19" s="1"/>
@@ -3349,8 +4265,8 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -3401,7 +4317,7 @@
       <c r="Q20" s="14">
         <v>1</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="19">
         <v>1</v>
       </c>
       <c r="S20" s="1"/>
@@ -3414,8 +4330,8 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -3466,7 +4382,7 @@
       <c r="Q21" s="14">
         <v>0</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="19">
         <v>1</v>
       </c>
       <c r="S21" s="1"/>
@@ -3479,8 +4395,8 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3531,7 +4447,7 @@
       <c r="Q22" s="14">
         <v>1</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22" s="1"/>
@@ -3544,8 +4460,8 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3596,7 +4512,7 @@
       <c r="Q23" s="14">
         <v>1</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="19">
         <v>1</v>
       </c>
       <c r="S23" s="1"/>
@@ -3610,7 +4526,7 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -3661,7 +4577,7 @@
       <c r="Q24" s="14">
         <v>1</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="19">
         <v>1</v>
       </c>
       <c r="S24" s="1"/>
@@ -3674,8 +4590,8 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -3726,7 +4642,7 @@
       <c r="Q25" s="14">
         <v>1</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="1"/>
@@ -3739,8 +4655,8 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="15" t="s">
@@ -3791,7 +4707,7 @@
       <c r="Q26" s="14">
         <v>1</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="1"/>
@@ -3804,8 +4720,8 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -3856,7 +4772,7 @@
       <c r="Q27" s="14">
         <v>1</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="19">
         <v>1</v>
       </c>
       <c r="S27" s="1"/>
@@ -3869,8 +4785,8 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:27" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>158</v>
       </c>
       <c r="B28" s="15" t="s">
@@ -3921,7 +4837,7 @@
       <c r="Q28" s="14">
         <v>1</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="1"/>
@@ -3934,8 +4850,8 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="212.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:27" ht="212.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>163</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -3986,7 +4902,7 @@
       <c r="Q29" s="14">
         <v>1</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="19">
         <v>0</v>
       </c>
       <c r="S29" s="1"/>
@@ -3999,8 +4915,8 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="15" t="s">
@@ -4051,7 +4967,7 @@
       <c r="Q30" s="14">
         <v>1</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="1"/>
@@ -4064,8 +4980,8 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>173</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -4116,7 +5032,7 @@
       <c r="Q31" s="14">
         <v>0</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="19">
         <v>0</v>
       </c>
       <c r="S31" s="1"/>
@@ -4129,8 +5045,8 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="15" t="s">
@@ -4181,7 +5097,7 @@
       <c r="Q32" s="14">
         <v>1</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="1"/>
@@ -4194,8 +5110,8 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -4246,7 +5162,7 @@
       <c r="Q33" s="14">
         <v>1</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="19">
         <v>0</v>
       </c>
       <c r="S33" s="1"/>
@@ -4259,8 +5175,8 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -4311,7 +5227,7 @@
       <c r="Q34" s="14">
         <v>0</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="1"/>
@@ -4324,39 +5240,39 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>193</v>
+    <row r="35" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>198</v>
+        <v>221</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="I35" s="5">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J35" s="14">
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="14">
         <v>0</v>
@@ -4376,8 +5292,8 @@
       <c r="Q35" s="14">
         <v>1</v>
       </c>
-      <c r="R35" s="14">
-        <v>0</v>
+      <c r="R35" s="19">
+        <v>1</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4390,7 +5306,7 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="18" t="s">
         <v>199</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -4441,7 +5357,7 @@
       <c r="Q36" s="14">
         <v>1</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="19">
         <v>0</v>
       </c>
       <c r="S36" s="1"/>
@@ -4455,7 +5371,7 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -4506,7 +5422,7 @@
       <c r="Q37" s="14">
         <v>1</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="1"/>
@@ -4519,18 +5435,18 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>208</v>
+    <row r="38" spans="1:27" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>35</v>
@@ -4539,19 +5455,19 @@
         <v>23</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="I38" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J38" s="14">
         <v>0</v>
       </c>
       <c r="K38" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="14">
         <v>0</v>
@@ -4569,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="14">
-        <v>1</v>
-      </c>
-      <c r="R38" s="14">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R38" s="19">
+        <v>1</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -4585,17 +5501,17 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>213</v>
+      <c r="A39" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>35</v>
@@ -4604,22 +5520,22 @@
         <v>23</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="I39" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J39" s="14">
         <v>0</v>
       </c>
       <c r="K39" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="14">
         <v>0</v>
@@ -4636,8 +5552,8 @@
       <c r="Q39" s="14">
         <v>1</v>
       </c>
-      <c r="R39" s="14">
-        <v>0</v>
+      <c r="R39" s="19">
+        <v>1</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -4649,39 +5565,39 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>218</v>
+    <row r="40" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>222</v>
+        <v>197</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="I40" s="5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J40" s="14">
         <v>0</v>
       </c>
       <c r="K40" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="14">
         <v>0</v>
@@ -4701,8 +5617,8 @@
       <c r="Q40" s="14">
         <v>1</v>
       </c>
-      <c r="R40" s="14">
-        <v>1</v>
+      <c r="R40" s="19">
+        <v>0</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -4714,18 +5630,18 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>223</v>
+    <row r="41" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>35</v>
@@ -4734,10 +5650,10 @@
         <v>23</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="I41" s="5">
         <v>2021</v>
@@ -4758,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="14">
         <v>0</v>
@@ -4766,8 +5682,8 @@
       <c r="Q41" s="14">
         <v>1</v>
       </c>
-      <c r="R41" s="14">
-        <v>1</v>
+      <c r="R41" s="19">
+        <v>0</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -4779,18 +5695,18 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>228</v>
+    <row r="42" spans="1:27" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>35</v>
@@ -4799,13 +5715,13 @@
         <v>23</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="I42" s="5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J42" s="14">
         <v>0</v>
@@ -4829,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="14">
-        <v>0</v>
-      </c>
-      <c r="R42" s="14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -4844,8 +5760,8 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:27" ht="137.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>233</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -4896,7 +5812,7 @@
       <c r="Q43" s="14">
         <v>1</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="19">
         <v>0</v>
       </c>
       <c r="S43" s="1"/>
@@ -4909,8 +5825,8 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>238</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -4961,7 +5877,7 @@
       <c r="Q44" s="14">
         <v>1</v>
       </c>
-      <c r="R44" s="14">
+      <c r="R44" s="19">
         <v>1</v>
       </c>
       <c r="S44" s="1"/>
@@ -4974,18 +5890,18 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>243</v>
+    <row r="45" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>223</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>35</v>
@@ -4994,13 +5910,13 @@
         <v>23</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="I45" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J45" s="14">
         <v>0</v>
@@ -5018,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="14">
         <v>0</v>
@@ -5026,7 +5942,7 @@
       <c r="Q45" s="14">
         <v>1</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="19">
         <v>1</v>
       </c>
       <c r="S45" s="1"/>
@@ -5039,8 +5955,8 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>247</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -5091,7 +6007,7 @@
       <c r="Q46" s="14">
         <v>1</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="19">
         <v>0</v>
       </c>
       <c r="S46" s="1"/>
@@ -5104,8 +6020,8 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" ht="162.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:27" ht="162.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>252</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -5156,7 +6072,7 @@
       <c r="Q47" s="14">
         <v>1</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="19">
         <v>0</v>
       </c>
       <c r="S47" s="1"/>
@@ -5169,18 +6085,18 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>257</v>
+    <row r="48" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>261</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>35</v>
@@ -5189,13 +6105,13 @@
         <v>23</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I48" s="5">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J48" s="14">
         <v>0</v>
@@ -5204,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="14">
         <v>0</v>
@@ -5221,7 +6137,7 @@
       <c r="Q48" s="14">
         <v>1</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="19">
         <v>1</v>
       </c>
       <c r="S48" s="1"/>
@@ -5234,18 +6150,18 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>261</v>
+    <row r="49" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>243</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>35</v>
@@ -5254,13 +6170,13 @@
         <v>23</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="I49" s="5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J49" s="14">
         <v>0</v>
@@ -5286,7 +6202,7 @@
       <c r="Q49" s="14">
         <v>1</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="19">
         <v>1</v>
       </c>
       <c r="S49" s="1"/>
@@ -5299,8 +6215,8 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>266</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -5351,7 +6267,7 @@
       <c r="Q50" s="14">
         <v>1</v>
       </c>
-      <c r="R50" s="14">
+      <c r="R50" s="19">
         <v>0</v>
       </c>
       <c r="S50" s="1"/>
@@ -5365,7 +6281,7 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="18" t="s">
         <v>272</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -5416,7 +6332,7 @@
       <c r="Q51" s="14">
         <v>0</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="19">
         <v>1</v>
       </c>
       <c r="S51" s="1"/>
@@ -5429,8 +6345,8 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>278</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -5481,7 +6397,7 @@
       <c r="Q52" s="14">
         <v>1</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R52" s="19">
         <v>1</v>
       </c>
       <c r="S52" s="1"/>
@@ -5494,8 +6410,8 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:27" ht="187.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
         <v>283</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -5546,7 +6462,7 @@
       <c r="Q53" s="14">
         <v>1</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R53" s="19">
         <v>1</v>
       </c>
       <c r="S53" s="1"/>
@@ -5559,8 +6475,8 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>288</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -5611,7 +6527,7 @@
       <c r="Q54" s="14">
         <v>0</v>
       </c>
-      <c r="R54" s="14">
+      <c r="R54" s="19">
         <v>1</v>
       </c>
       <c r="S54" s="1"/>
@@ -5624,8 +6540,8 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>293</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -5676,7 +6592,7 @@
       <c r="Q55" s="14">
         <v>1</v>
       </c>
-      <c r="R55" s="14">
+      <c r="R55" s="19">
         <v>1</v>
       </c>
       <c r="S55" s="1"/>
@@ -5689,8 +6605,8 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>299</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -5741,7 +6657,7 @@
       <c r="Q56" s="14">
         <v>1</v>
       </c>
-      <c r="R56" s="14">
+      <c r="R56" s="19">
         <v>1</v>
       </c>
       <c r="S56" s="1"/>
@@ -5754,8 +6670,8 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
         <v>304</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -5806,7 +6722,7 @@
       <c r="Q57" s="14">
         <v>1</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R57" s="19">
         <v>1</v>
       </c>
       <c r="S57" s="1"/>
@@ -5819,8 +6735,8 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>524</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -5871,7 +6787,7 @@
       <c r="Q58" s="14">
         <v>1</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R58" s="19">
         <v>1</v>
       </c>
       <c r="S58" s="1"/>
@@ -5884,8 +6800,8 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
         <v>308</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -5936,7 +6852,7 @@
       <c r="Q59" s="14">
         <v>1</v>
       </c>
-      <c r="R59" s="14">
+      <c r="R59" s="19">
         <v>0</v>
       </c>
       <c r="S59" s="1"/>
@@ -5950,7 +6866,7 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="18" t="s">
         <v>312</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -6001,7 +6917,7 @@
       <c r="Q60" s="14">
         <v>0</v>
       </c>
-      <c r="R60" s="14">
+      <c r="R60" s="19">
         <v>1</v>
       </c>
       <c r="S60" s="1"/>
@@ -6015,7 +6931,7 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="18" t="s">
         <v>317</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -6066,7 +6982,7 @@
       <c r="Q61" s="14">
         <v>1</v>
       </c>
-      <c r="R61" s="14">
+      <c r="R61" s="19">
         <v>1</v>
       </c>
       <c r="S61" s="1"/>
@@ -6079,8 +6995,8 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
         <v>322</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -6131,7 +7047,7 @@
       <c r="Q62" s="14">
         <v>1</v>
       </c>
-      <c r="R62" s="14">
+      <c r="R62" s="19">
         <v>1</v>
       </c>
       <c r="S62" s="1"/>
@@ -6144,8 +7060,8 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
         <v>328</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -6196,7 +7112,7 @@
       <c r="Q63" s="14">
         <v>1</v>
       </c>
-      <c r="R63" s="14">
+      <c r="R63" s="19">
         <v>1</v>
       </c>
       <c r="S63" s="1"/>
@@ -6209,8 +7125,8 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>333</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -6261,7 +7177,7 @@
       <c r="Q64" s="14">
         <v>1</v>
       </c>
-      <c r="R64" s="14">
+      <c r="R64" s="19">
         <v>1</v>
       </c>
       <c r="S64" s="1"/>
@@ -6274,8 +7190,8 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>338</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -6326,7 +7242,7 @@
       <c r="Q65" s="14">
         <v>1</v>
       </c>
-      <c r="R65" s="14">
+      <c r="R65" s="19">
         <v>1</v>
       </c>
       <c r="S65" s="1"/>
@@ -6339,8 +7255,8 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>343</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -6391,7 +7307,7 @@
       <c r="Q66" s="14">
         <v>1</v>
       </c>
-      <c r="R66" s="14">
+      <c r="R66" s="19">
         <v>1</v>
       </c>
       <c r="S66" s="1"/>
@@ -6405,7 +7321,7 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="18" t="s">
         <v>348</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -6456,7 +7372,7 @@
       <c r="Q67" s="14">
         <v>1</v>
       </c>
-      <c r="R67" s="14">
+      <c r="R67" s="19">
         <v>1</v>
       </c>
       <c r="S67" s="1"/>
@@ -6469,8 +7385,8 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>351</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -6521,7 +7437,7 @@
       <c r="Q68" s="14">
         <v>1</v>
       </c>
-      <c r="R68" s="14">
+      <c r="R68" s="19">
         <v>1</v>
       </c>
       <c r="S68" s="1"/>
@@ -6534,8 +7450,8 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>356</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -6586,7 +7502,7 @@
       <c r="Q69" s="14">
         <v>1</v>
       </c>
-      <c r="R69" s="14">
+      <c r="R69" s="19">
         <v>1</v>
       </c>
       <c r="S69" s="1"/>
@@ -6599,8 +7515,8 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>361</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -6651,7 +7567,7 @@
       <c r="Q70" s="14">
         <v>1</v>
       </c>
-      <c r="R70" s="14">
+      <c r="R70" s="19">
         <v>1</v>
       </c>
       <c r="S70" s="1"/>
@@ -6664,8 +7580,8 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>366</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -6716,7 +7632,7 @@
       <c r="Q71" s="14">
         <v>1</v>
       </c>
-      <c r="R71" s="14">
+      <c r="R71" s="19">
         <v>1</v>
       </c>
       <c r="S71" s="1"/>
@@ -6730,7 +7646,7 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="18" t="s">
         <v>371</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -6781,7 +7697,7 @@
       <c r="Q72" s="14">
         <v>0</v>
       </c>
-      <c r="R72" s="14">
+      <c r="R72" s="19">
         <v>1</v>
       </c>
       <c r="S72" s="1"/>
@@ -6794,8 +7710,8 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
         <v>376</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -6846,7 +7762,7 @@
       <c r="Q73" s="14">
         <v>1</v>
       </c>
-      <c r="R73" s="14">
+      <c r="R73" s="19">
         <v>1</v>
       </c>
       <c r="S73" s="1"/>
@@ -6859,8 +7775,8 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:27" ht="137.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
         <v>381</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -6911,7 +7827,7 @@
       <c r="Q74" s="14">
         <v>1</v>
       </c>
-      <c r="R74" s="14">
+      <c r="R74" s="19">
         <v>1</v>
       </c>
       <c r="S74" s="1"/>
@@ -6924,8 +7840,8 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
         <v>386</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -6976,7 +7892,7 @@
       <c r="Q75" s="14">
         <v>1</v>
       </c>
-      <c r="R75" s="14">
+      <c r="R75" s="19">
         <v>1</v>
       </c>
       <c r="S75" s="1"/>
@@ -6990,7 +7906,7 @@
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="18" t="s">
         <v>391</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -7041,7 +7957,7 @@
       <c r="Q76" s="14">
         <v>1</v>
       </c>
-      <c r="R76" s="14">
+      <c r="R76" s="19">
         <v>1</v>
       </c>
       <c r="S76" s="1"/>
@@ -7054,8 +7970,8 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:27" ht="137.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>396</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -7106,7 +8022,7 @@
       <c r="Q77" s="14">
         <v>1</v>
       </c>
-      <c r="R77" s="14">
+      <c r="R77" s="19">
         <v>1</v>
       </c>
       <c r="S77" s="1"/>
@@ -7120,7 +8036,7 @@
       <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="18" t="s">
         <v>401</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -7171,7 +8087,7 @@
       <c r="Q78" s="14">
         <v>1</v>
       </c>
-      <c r="R78" s="14">
+      <c r="R78" s="19">
         <v>0</v>
       </c>
       <c r="S78" s="1"/>
@@ -7184,8 +8100,8 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>406</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -7236,7 +8152,7 @@
       <c r="Q79" s="14">
         <v>1</v>
       </c>
-      <c r="R79" s="14">
+      <c r="R79" s="19">
         <v>0</v>
       </c>
       <c r="S79" s="1"/>
@@ -7249,8 +8165,8 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:27" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
         <v>411</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -7301,7 +8217,7 @@
       <c r="Q80" s="14">
         <v>1</v>
       </c>
-      <c r="R80" s="14">
+      <c r="R80" s="19">
         <v>1</v>
       </c>
       <c r="S80" s="1"/>
@@ -7314,8 +8230,8 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
         <v>416</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -7366,7 +8282,7 @@
       <c r="Q81" s="14">
         <v>1</v>
       </c>
-      <c r="R81" s="14">
+      <c r="R81" s="19">
         <v>1</v>
       </c>
       <c r="S81" s="1"/>
@@ -7379,8 +8295,8 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
         <v>421</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -7431,7 +8347,7 @@
       <c r="Q82" s="14">
         <v>1</v>
       </c>
-      <c r="R82" s="14">
+      <c r="R82" s="19">
         <v>0</v>
       </c>
       <c r="S82" s="1"/>
@@ -7444,8 +8360,8 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>426</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -7496,7 +8412,7 @@
       <c r="Q83" s="14">
         <v>1</v>
       </c>
-      <c r="R83" s="14">
+      <c r="R83" s="19">
         <v>1</v>
       </c>
       <c r="S83" s="1"/>
@@ -7510,7 +8426,7 @@
       <c r="AA83" s="1"/>
     </row>
     <row r="84" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="18" t="s">
         <v>430</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -7561,7 +8477,7 @@
       <c r="Q84" s="14">
         <v>1</v>
       </c>
-      <c r="R84" s="14">
+      <c r="R84" s="19">
         <v>1</v>
       </c>
       <c r="S84" s="1"/>
@@ -7574,8 +8490,8 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>435</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -7626,7 +8542,7 @@
       <c r="Q85" s="14">
         <v>1</v>
       </c>
-      <c r="R85" s="14">
+      <c r="R85" s="19">
         <v>1</v>
       </c>
       <c r="S85" s="1"/>
@@ -7639,8 +8555,8 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:27" ht="125" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>440</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -7691,7 +8607,7 @@
       <c r="Q86" s="14">
         <v>1</v>
       </c>
-      <c r="R86" s="14">
+      <c r="R86" s="19">
         <v>1</v>
       </c>
       <c r="S86" s="1"/>
@@ -7704,8 +8620,8 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="225" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:27" ht="225" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>445</v>
       </c>
       <c r="B87" s="17" t="s">
@@ -7756,7 +8672,7 @@
       <c r="Q87" s="14">
         <v>1</v>
       </c>
-      <c r="R87" s="14">
+      <c r="R87" s="19">
         <v>1</v>
       </c>
       <c r="S87" s="1"/>
@@ -7770,7 +8686,7 @@
       <c r="AA87" s="1"/>
     </row>
     <row r="88" spans="1:27" ht="125" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="18" t="s">
         <v>451</v>
       </c>
       <c r="B88" s="17" t="s">
@@ -7821,7 +8737,7 @@
       <c r="Q88" s="14">
         <v>1</v>
       </c>
-      <c r="R88" s="14">
+      <c r="R88" s="19">
         <v>1</v>
       </c>
       <c r="S88" s="1"/>
@@ -7834,8 +8750,8 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B89" s="17" t="s">
@@ -7886,7 +8802,7 @@
       <c r="Q89" s="14">
         <v>1</v>
       </c>
-      <c r="R89" s="14">
+      <c r="R89" s="19">
         <v>1</v>
       </c>
       <c r="S89" s="1"/>
@@ -7899,8 +8815,8 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="17" t="s">
@@ -7951,7 +8867,7 @@
       <c r="Q90" s="14">
         <v>1</v>
       </c>
-      <c r="R90" s="14">
+      <c r="R90" s="19">
         <v>1</v>
       </c>
       <c r="S90" s="1"/>
@@ -7964,8 +8880,8 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:27" ht="62.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>456</v>
       </c>
       <c r="B91" s="17" t="s">
@@ -8016,7 +8932,7 @@
       <c r="Q91" s="14">
         <v>0</v>
       </c>
-      <c r="R91" s="14">
+      <c r="R91" s="19">
         <v>1</v>
       </c>
       <c r="S91" s="1"/>
@@ -8029,8 +8945,8 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>461</v>
       </c>
       <c r="B92" s="17" t="s">
@@ -8081,7 +8997,7 @@
       <c r="Q92" s="14">
         <v>1</v>
       </c>
-      <c r="R92" s="14">
+      <c r="R92" s="19">
         <v>0</v>
       </c>
       <c r="S92" s="1"/>
@@ -8095,7 +9011,7 @@
       <c r="AA92" s="1"/>
     </row>
     <row r="93" spans="1:27" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="18" t="s">
         <v>536</v>
       </c>
       <c r="B93" s="17" t="s">
@@ -8146,7 +9062,7 @@
       <c r="Q93" s="14">
         <v>1</v>
       </c>
-      <c r="R93" s="14">
+      <c r="R93" s="19">
         <v>1</v>
       </c>
       <c r="S93" s="1"/>
@@ -8159,8 +9075,8 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
         <v>466</v>
       </c>
       <c r="B94" s="17" t="s">
@@ -8211,7 +9127,7 @@
       <c r="Q94" s="14">
         <v>0</v>
       </c>
-      <c r="R94" s="14">
+      <c r="R94" s="19">
         <v>1</v>
       </c>
       <c r="S94" s="1"/>
@@ -8225,7 +9141,7 @@
       <c r="AA94" s="1"/>
     </row>
     <row r="95" spans="1:27" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="18" t="s">
         <v>541</v>
       </c>
       <c r="B95" s="17" t="s">
@@ -8276,7 +9192,7 @@
       <c r="Q95" s="14">
         <v>1</v>
       </c>
-      <c r="R95" s="14">
+      <c r="R95" s="19">
         <v>1</v>
       </c>
       <c r="S95" s="1"/>
@@ -8289,8 +9205,8 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
         <v>471</v>
       </c>
       <c r="B96" s="17" t="s">
@@ -8341,7 +9257,7 @@
       <c r="Q96" s="14">
         <v>1</v>
       </c>
-      <c r="R96" s="14">
+      <c r="R96" s="19">
         <v>1</v>
       </c>
       <c r="S96" s="1"/>
@@ -8354,8 +9270,8 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>477</v>
       </c>
       <c r="B97" s="17" t="s">
@@ -8406,7 +9322,7 @@
       <c r="Q97" s="14">
         <v>1</v>
       </c>
-      <c r="R97" s="14">
+      <c r="R97" s="19">
         <v>1</v>
       </c>
       <c r="S97" s="1"/>
@@ -8419,8 +9335,8 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:27" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
         <v>482</v>
       </c>
       <c r="B98" s="17" t="s">
@@ -8471,7 +9387,7 @@
       <c r="Q98" s="14">
         <v>1</v>
       </c>
-      <c r="R98" s="14">
+      <c r="R98" s="19">
         <v>1</v>
       </c>
       <c r="S98" s="1"/>
@@ -8485,7 +9401,7 @@
       <c r="AA98" s="1"/>
     </row>
     <row r="99" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="18" t="s">
         <v>542</v>
       </c>
       <c r="B99" s="17" t="s">
@@ -8536,7 +9452,7 @@
       <c r="Q99" s="14">
         <v>1</v>
       </c>
-      <c r="R99" s="14">
+      <c r="R99" s="19">
         <v>1</v>
       </c>
       <c r="S99" s="1"/>
@@ -8549,8 +9465,8 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
         <v>488</v>
       </c>
       <c r="B100" s="17" t="s">
@@ -8601,7 +9517,7 @@
       <c r="Q100" s="14">
         <v>1</v>
       </c>
-      <c r="R100" s="14">
+      <c r="R100" s="19">
         <v>1</v>
       </c>
       <c r="S100" s="1"/>
@@ -8614,8 +9530,8 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:27" ht="112.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
         <v>493</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -8666,7 +9582,7 @@
       <c r="Q101" s="14">
         <v>1</v>
       </c>
-      <c r="R101" s="14">
+      <c r="R101" s="19">
         <v>1</v>
       </c>
       <c r="S101" s="1"/>
@@ -8679,8 +9595,8 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" ht="150" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:27" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
         <v>498</v>
       </c>
       <c r="B102" s="17" t="s">
@@ -8731,7 +9647,7 @@
       <c r="Q102" s="14">
         <v>1</v>
       </c>
-      <c r="R102" s="14">
+      <c r="R102" s="19">
         <v>1</v>
       </c>
       <c r="S102" s="1"/>
@@ -8744,8 +9660,8 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" ht="50" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:27" ht="50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
         <v>503</v>
       </c>
       <c r="B103" s="17" t="s">
@@ -8796,7 +9712,7 @@
       <c r="Q103" s="14">
         <v>1</v>
       </c>
-      <c r="R103" s="14">
+      <c r="R103" s="19">
         <v>1</v>
       </c>
       <c r="S103" s="1"/>
@@ -8810,7 +9726,7 @@
       <c r="AA103" s="1"/>
     </row>
     <row r="104" spans="1:27" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="18" t="s">
         <v>508</v>
       </c>
       <c r="B104" s="17" t="s">
@@ -8861,7 +9777,7 @@
       <c r="Q104" s="14">
         <v>1</v>
       </c>
-      <c r="R104" s="14">
+      <c r="R104" s="19">
         <v>1</v>
       </c>
       <c r="S104" s="1"/>
@@ -8874,8 +9790,8 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:27" ht="87.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="17" t="s">
@@ -8926,7 +9842,7 @@
       <c r="Q105" s="14">
         <v>1</v>
       </c>
-      <c r="R105" s="14">
+      <c r="R105" s="19">
         <v>1</v>
       </c>
       <c r="S105" s="1"/>
@@ -8939,59 +9855,59 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="100" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:27" ht="100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="26">
         <v>2023</v>
       </c>
-      <c r="J106" s="14">
-        <v>0</v>
-      </c>
-      <c r="K106" s="14">
-        <v>0</v>
-      </c>
-      <c r="L106" s="14">
-        <v>0</v>
-      </c>
-      <c r="M106" s="14">
-        <v>0</v>
-      </c>
-      <c r="N106" s="14">
-        <v>1</v>
-      </c>
-      <c r="O106" s="14">
-        <v>1</v>
-      </c>
-      <c r="P106" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="14">
-        <v>1</v>
-      </c>
-      <c r="R106" s="14">
+      <c r="J106" s="29">
+        <v>0</v>
+      </c>
+      <c r="K106" s="29">
+        <v>0</v>
+      </c>
+      <c r="L106" s="29">
+        <v>0</v>
+      </c>
+      <c r="M106" s="29">
+        <v>0</v>
+      </c>
+      <c r="N106" s="29">
+        <v>1</v>
+      </c>
+      <c r="O106" s="29">
+        <v>1</v>
+      </c>
+      <c r="P106" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="29">
+        <v>1</v>
+      </c>
+      <c r="R106" s="30">
         <v>1</v>
       </c>
       <c r="S106" s="1"/>
@@ -35995,36 +36911,36 @@
     <hyperlink ref="H33" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="G34" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="H34" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G35" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H35" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G40" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H40" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="G36" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="H36" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="G37" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="H37" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G38" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H38" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G39" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H39" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G40" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H40" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G41" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H41" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G42" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H42" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G41" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H41" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H42" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G35" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H35" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G45" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G38" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H38" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="G43" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="H43" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="G44" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="H44" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="G45" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H45" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G49" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="H49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="G46" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="H46" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="G47" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="H47" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="G48" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="H48" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="G49" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="H49" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G39" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H39" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G48" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H48" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="G50" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="H50" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="G51" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
@@ -36128,5 +37044,1133 @@
     <hyperlink ref="H106" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId200"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10F1C1C-AF38-4E85-BFE4-0BDB9C93A5FE}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="39" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="125" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="31">
+        <v>2022</v>
+      </c>
+      <c r="J2" s="34">
+        <v>0</v>
+      </c>
+      <c r="K2" s="34">
+        <v>1</v>
+      </c>
+      <c r="L2" s="34">
+        <v>1</v>
+      </c>
+      <c r="M2" s="34">
+        <v>0</v>
+      </c>
+      <c r="N2" s="34">
+        <v>1</v>
+      </c>
+      <c r="O2" s="34">
+        <v>0</v>
+      </c>
+      <c r="P2" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>0</v>
+      </c>
+      <c r="R2" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="31">
+        <v>2022</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0</v>
+      </c>
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="34">
+        <v>1</v>
+      </c>
+      <c r="M4" s="34">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34">
+        <v>1</v>
+      </c>
+      <c r="O4" s="34">
+        <v>1</v>
+      </c>
+      <c r="P4" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>1</v>
+      </c>
+      <c r="R4" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <v>1</v>
+      </c>
+      <c r="N5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="14">
+        <v>1</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="I6" s="31">
+        <v>2022</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34">
+        <v>0</v>
+      </c>
+      <c r="L6" s="34">
+        <v>1</v>
+      </c>
+      <c r="M6" s="34">
+        <v>0</v>
+      </c>
+      <c r="N6" s="34">
+        <v>1</v>
+      </c>
+      <c r="O6" s="34">
+        <v>0</v>
+      </c>
+      <c r="P6" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1</v>
+      </c>
+      <c r="R6" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="125" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="31">
+        <v>2023</v>
+      </c>
+      <c r="J8" s="34">
+        <v>0</v>
+      </c>
+      <c r="K8" s="34">
+        <v>0</v>
+      </c>
+      <c r="L8" s="34">
+        <v>1</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34">
+        <v>1</v>
+      </c>
+      <c r="O8" s="34">
+        <v>0</v>
+      </c>
+      <c r="P8" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="34">
+        <v>0</v>
+      </c>
+      <c r="R8" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="125" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="I10" s="31">
+        <v>2023</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0</v>
+      </c>
+      <c r="L10" s="34">
+        <v>1</v>
+      </c>
+      <c r="M10" s="34">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34">
+        <v>1</v>
+      </c>
+      <c r="O10" s="34">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>1</v>
+      </c>
+      <c r="R10" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="175" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="31">
+        <v>2023</v>
+      </c>
+      <c r="J12" s="34">
+        <v>1</v>
+      </c>
+      <c r="K12" s="34">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
+        <v>1</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34">
+        <v>1</v>
+      </c>
+      <c r="O12" s="34">
+        <v>0</v>
+      </c>
+      <c r="P12" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="34">
+        <v>1</v>
+      </c>
+      <c r="R12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="125" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>1</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="I14" s="31">
+        <v>2022</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34">
+        <v>0</v>
+      </c>
+      <c r="L14" s="34">
+        <v>1</v>
+      </c>
+      <c r="M14" s="34">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <v>1</v>
+      </c>
+      <c r="O14" s="34">
+        <v>1</v>
+      </c>
+      <c r="P14" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>1</v>
+      </c>
+      <c r="R14" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>1</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" s="31">
+        <v>2023</v>
+      </c>
+      <c r="J16" s="34">
+        <v>0</v>
+      </c>
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34">
+        <v>1</v>
+      </c>
+      <c r="M16" s="34">
+        <v>1</v>
+      </c>
+      <c r="N16" s="34">
+        <v>1</v>
+      </c>
+      <c r="O16" s="34">
+        <v>1</v>
+      </c>
+      <c r="P16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>1</v>
+      </c>
+      <c r="R16" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>1</v>
+      </c>
+      <c r="R17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="I18" s="31">
+        <v>2023</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34">
+        <v>1</v>
+      </c>
+      <c r="L18" s="34">
+        <v>1</v>
+      </c>
+      <c r="M18" s="34">
+        <v>1</v>
+      </c>
+      <c r="N18" s="34">
+        <v>1</v>
+      </c>
+      <c r="O18" s="34">
+        <v>1</v>
+      </c>
+      <c r="P18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>1</v>
+      </c>
+      <c r="R18" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B19" xr:uid="{F1A06960-A43C-418B-A210-3F8EBD6DAB5D}">
+      <formula1>"Finer: Real single-cell resolution,Broader: Accounting for multiple conditions,More localized: Incorporation of Spatial Context,Deeper: New ligand types and intracellular signaling,Other,Core Tool"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{CA2B5B75-692F-4A4E-9335-2315552AE009}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{BEA8EA17-19EE-4B6B-828C-2290413CDB9E}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{45B943D1-3D17-4D8D-BD0F-631BB24F9776}"/>
+    <hyperlink ref="H3" r:id="rId4" xr:uid="{103CAAC4-1E3A-4C85-829B-CDD4A6266DDC}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{C0A7EE0F-ABD2-4D0F-AAEA-E05825437554}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{DC3B1FF5-4AA8-42F0-8ECF-3061EAB04C06}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{764961F8-7395-40DD-9594-44B149F2C4BA}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{0CE60556-ABA1-4AC1-B385-B979BCD75838}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{42E9C689-CB84-44B0-AA07-A00C7D5C72BA}"/>
+    <hyperlink ref="H6" r:id="rId10" xr:uid="{3B4C739D-CA1A-4106-8E0F-0AA3FFAA8DBB}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{083DDC4D-4EE0-4AA6-97FA-2A525025F599}"/>
+    <hyperlink ref="H7" r:id="rId12" xr:uid="{E3785310-FA90-4592-8843-89CD04FBE419}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{D8F55DA4-FFA3-4694-ADF2-C9CC9F9CEA22}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{C53A8A3C-421B-4C67-93A7-FC54A53FBDF0}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{3006EB5D-1627-466F-9182-503CA13B3577}"/>
+    <hyperlink ref="H9" r:id="rId16" xr:uid="{2DDC1001-795D-41B8-B5E6-AE710BBE4B83}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{5100FAD0-9BD2-4239-BA11-5D853943A149}"/>
+    <hyperlink ref="H10" r:id="rId18" xr:uid="{CC214B45-BE21-4214-B77C-8F0C86075865}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{4A49395A-994B-4424-AE0E-C6B4274AF012}"/>
+    <hyperlink ref="H11" r:id="rId20" xr:uid="{5AF47A93-DF00-45FB-AC6E-5073D5359E70}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{417356BF-8C6E-4BD7-8830-BECCCC92D301}"/>
+    <hyperlink ref="H12" r:id="rId22" xr:uid="{C0B84F0E-E1FB-4812-A3D5-7D00850006CC}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{62E9659A-D1FC-44FC-B4F5-98B0EB97480E}"/>
+    <hyperlink ref="H13" r:id="rId24" xr:uid="{89D2E120-F091-47F8-9BAA-DBD4E65FC763}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{9FB0FFDE-3424-4F03-84AF-05BB32228E1E}"/>
+    <hyperlink ref="H14" r:id="rId26" xr:uid="{62FCE949-0BB7-4F27-A86E-9DFDCEB6741F}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{91A81341-3D6A-4834-8C2E-2E76C37F5026}"/>
+    <hyperlink ref="H15" r:id="rId28" xr:uid="{0B85D9F8-04AA-4EEB-B95A-A2B26E63E7DB}"/>
+    <hyperlink ref="G19" r:id="rId29" xr:uid="{491B4D9F-AE4F-4C9F-BA60-47FA393D3319}"/>
+    <hyperlink ref="H19" r:id="rId30" xr:uid="{D3026177-AA31-4BFB-B948-0BE80FCA1359}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>